--- a/2020-04-11 - 2020-05-10.xlsx
+++ b/2020-04-11 - 2020-05-10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>small screen,medium screen, large screen</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
   </si>
 </sst>
 </file>
@@ -208,51 +211,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,19 +577,19 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
@@ -594,57 +599,57 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -669,607 +674,742 @@
       <c r="C9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="18">
         <v>43934</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="21"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="21"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="18">
         <v>43935</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="15"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="17" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="18">
         <v>43936</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="15"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="16">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="18">
         <v>43937</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="15"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="18">
         <v>43938</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="15"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="18" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="16">
         <v>6</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="16">
         <v>7</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="16">
         <v>8</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="16">
         <v>9</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="15"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="16">
         <v>10</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="16">
         <v>11</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="15"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="16">
         <v>12</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="15"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="16">
         <v>13</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="16">
         <v>14</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="15"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="16">
         <v>15</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="15"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="10"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="16">
         <v>16</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="15"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="16">
         <v>17</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="16">
         <v>18</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="15"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="16">
         <v>19</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="15"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="16"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="16">
         <v>20</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="15"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="10"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="16"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="16">
         <v>21</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="15"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="10"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="16"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="16">
         <v>22</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="15"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="16"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="A54" s="16">
         <v>23</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="15"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="16"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="149">
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="D53:H53"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="D44:H44"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D46:H46"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B2:D2"/>
     <mergeCell ref="D49:H49"/>
     <mergeCell ref="D50:H50"/>
     <mergeCell ref="D51:H51"/>
@@ -1294,134 +1434,13 @@
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="D22:H22"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="D44:H44"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D46:H46"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="D53:H53"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="D47:H47"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="D34:H34"/>
-    <mergeCell ref="D35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I10:I11" r:id="rId1" display="Screenshot"/>
+    <hyperlink ref="I12:I19" r:id="rId2" display="Screenshot"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
